--- a/biology/Médecine/Muscle_abaisseur_de_l'angle_de_la_bouche/Muscle_abaisseur_de_l'angle_de_la_bouche.xlsx
+++ b/biology/Médecine/Muscle_abaisseur_de_l'angle_de_la_bouche/Muscle_abaisseur_de_l'angle_de_la_bouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle abaisseur de l'angle de la bouche (en latin : Musculus depressor anguli oris, raccourci en DAO) ou muscle triangulaire des lèvres est un petit muscle triangulaire pair de la partie latérale du menton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine : il nait du bord inférieur de la mandibule près de la symphyse mentonnière et en dehors de la ligne oblique externe
 Trajet : il va se rétrécir les fibres les plus externes montant sensiblement à la verticale, les plus internes étant fortement obliques en haut et en dehors
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par des rameaux buccaux et mandibulaires du nerf facial.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère labiale inférieure qui est issue de l'artère faciale.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abaisse l'angle des lèvres étant antagoniste des muscles canin et grand zygomatique.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé juste sous la peau, il recouvre les muscles abaisseur de la lèvre inférieure, platysma et buccinateur.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_abaisseur_de_l%27angle_de_la_bouche</t>
+          <t>Muscle_abaisseur_de_l'angle_de_la_bouche</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Hypoplasie du muscle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains patients présentent une hypoplasie congénitale de ce muscle[1]. Dans plus de 50 % des cas, cela est associé à d'autres malformations congénitales, notamment dans le cas du syndrome vélo-cardio-facial.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains patients présentent une hypoplasie congénitale de ce muscle. Dans plus de 50 % des cas, cela est associé à d'autres malformations congénitales, notamment dans le cas du syndrome vélo-cardio-facial.
 </t>
         </is>
       </c>
